--- a/卒展企画書.xlsx
+++ b/卒展企画書.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c854c0edac89b8a/Documents/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugen\Desktop\卒展企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CBB17061-96A3-4B09-85B0-129178C22B23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41F005EE-91CA-488A-808A-E611AA8FF093}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" activeTab="1" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>絵コンテ</t>
     <rPh sb="0" eb="1">
@@ -415,136 +415,6 @@
   </si>
   <si>
     <t>2018/10/1~2020/3/1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チームで巨大モンスターと戦っていた時にあまりにも強かった。
-動けない状態の中みんなおびえて逃げて行った。
-そんな中非戦闘員の荷物持ちが手を貸してくれた
-震えながらも俺を運んでくれた。
-しかし途中で巨大モンスターに出会い荷物持ちが犠牲になった。
-そして死にかけの荷物持ちが死に際にあることを伝えた「この任務は上部から君の好評を奪うために行われた作戦なんだよ」
-そこからチームを信頼せず、落ちこぼれの人をほっとけなくなった。</t>
-    <rPh sb="4" eb="6">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>タタカ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ニ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="57" eb="61">
-      <t>ヒセントウイン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ニモツ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>テ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>オレ</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="95" eb="97">
-      <t>トチュウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>キョダイ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>デア</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>ニモツ</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ギセイ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ニモツ</t>
-    </rPh>
-    <rPh sb="132" eb="133">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="135" eb="136">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="137" eb="138">
-      <t>ギワ</t>
-    </rPh>
-    <rPh sb="144" eb="145">
-      <t>ツタ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ニンム</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>ジョウブ</t>
-    </rPh>
-    <rPh sb="157" eb="158">
-      <t>キミ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>コウヒョウ</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>ウバ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="171" eb="173">
-      <t>サクセン</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>シンライ</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>ヒト</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -878,6 +748,153 @@
     <t>馬車用モンスター</t>
     <rPh sb="0" eb="3">
       <t>バシャヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームで巨大モンスターと戦っていた時にあまりにも強かった。
+動けない状態の中みんなおびえて逃げて行った。
+そんな中非戦闘員の荷物持ちが手を貸してくれた
+震えながらも俺を運んでくれた。
+しかし途中で巨大モンスターに出会い依頼人が犠牲になった。
+そして死にかけの荷物持ちが死に際にあることを伝えた「この任務は上部から君の好評を奪うために行われた作戦なんだよ」
+そこからチームを信頼せず、落ちこぼれの人をほっとけなくなった。</t>
+    <rPh sb="4" eb="6">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ニ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ヒセントウイン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>フル</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>オレ</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>トチュウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>キョダイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>デア</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>イライニン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>ギセイ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ニモツ</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>ギワ</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>ツタ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ニンム</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ジョウブ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>キミ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>コウヒョウ</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>ウバ</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>サクセン</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>シンライ</t>
+    </rPh>
+    <rPh sb="191" eb="192">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日笠陽子</t>
+    <rPh sb="0" eb="2">
+      <t>ヒカサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤聡美</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サトミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1335,13 +1352,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD18D3E-CC3F-4C9C-BAB3-B729B4A0EF05}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1389,7 +1406,7 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.65">
@@ -1430,10 +1447,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="92.15" x14ac:dyDescent="0.65">
@@ -1441,10 +1458,10 @@
         <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="92.15" x14ac:dyDescent="0.65">
@@ -1452,10 +1469,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1466,10 +1483,10 @@
         <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1479,10 +1496,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="55.3" x14ac:dyDescent="0.65">
@@ -1490,10 +1507,10 @@
         <v>41</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="36.9" x14ac:dyDescent="0.65">
@@ -1501,10 +1518,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.65">
@@ -1512,10 +1529,18 @@
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.65">
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/卒展企画書.xlsx
+++ b/卒展企画書.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugen\Desktop\卒展企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{41F005EE-91CA-488A-808A-E611AA8FF093}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A05585D-9EC0-4FAA-BF5A-032ADC9F83BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" activeTab="1" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
   </bookViews>
   <sheets>
-    <sheet name="シナリオ設定" sheetId="4" r:id="rId1"/>
-    <sheet name="キャラクター設定" sheetId="1" r:id="rId2"/>
-    <sheet name="世界観" sheetId="3" r:id="rId3"/>
-    <sheet name="スケジュール" sheetId="2" r:id="rId4"/>
+    <sheet name="重要ワード" sheetId="6" r:id="rId1"/>
+    <sheet name="シナリオ設定" sheetId="4" r:id="rId2"/>
+    <sheet name="アクション設定" sheetId="5" r:id="rId3"/>
+    <sheet name="キャラクター設定" sheetId="1" r:id="rId4"/>
+    <sheet name="世界観" sheetId="3" r:id="rId5"/>
+    <sheet name="スケジュール" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
   <si>
     <t>絵コンテ</t>
     <rPh sb="0" eb="1">
@@ -144,11 +146,6 @@
   <si>
     <t>武器や防具が飛躍的に進歩しており、それでモンスターと戦っている
 服は、機能性が重視されている</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>車の様に小回りがきかないものではなくバイクが主流になっている。
-長距離の移動では飛行可能な船で移動する</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -898,12 +895,485 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>年齢</t>
+    <rPh sb="0" eb="2">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髪</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特技</t>
+    <rPh sb="0" eb="2">
+      <t>トクギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱点</t>
+    <rPh sb="0" eb="2">
+      <t>ジャクテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口調</t>
+    <rPh sb="0" eb="2">
+      <t>クチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シナリオ上
+の設定</t>
+    <rPh sb="4" eb="5">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短髪</t>
+    <rPh sb="0" eb="2">
+      <t>タンパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚上着を羽織る
+ぴっちりスーツ
+ブーツ</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウワギ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃の仕方</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け身の仕方</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラAが飛んで叩きつける</t>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃をくらいながらもにらみつける</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩に向かって吹っ飛ばされる</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二刀流で空中縦回転斬り</t>
+    <rPh sb="0" eb="3">
+      <t>ニトウリュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃を受け押さえる</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の足元をスライディングしながら斬り滑る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>アシモト</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爪と剣の斬りあい</t>
+    <rPh sb="0" eb="1">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ叩き打ち</t>
+    <rPh sb="4" eb="5">
+      <t>タタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相方を投げる</t>
+    <rPh sb="0" eb="2">
+      <t>アイカタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相方を受け止める</t>
+    <rPh sb="0" eb="2">
+      <t>アイカタ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラAを崖につかまりながら助ける</t>
+    <rPh sb="5" eb="6">
+      <t>ガケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆弾セット→爆発→煙を抜けて殴る</t>
+    <rPh sb="0" eb="2">
+      <t>バクダン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケムリ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヌ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>車の様に小回りがきかないものではなく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>バイク</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が主流になっている。
+長距離の移動では飛行可能な船で移動する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バイク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2人</t>
+    <rPh sb="1" eb="2">
+      <t>リ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>巨大モンスター</t>
+    <rPh sb="0" eb="2">
+      <t>キョダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中モンスター</t>
+    <rPh sb="0" eb="1">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターを倒す</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒す理由</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうゆう世界だから</t>
+    <rPh sb="4" eb="6">
+      <t>セカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食料不足だから</t>
+    <rPh sb="0" eb="2">
+      <t>ショクリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そうゆう世界がわかる方法</t>
+    <rPh sb="4" eb="6">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・背景をジャングルっぽくする</t>
+    <rPh sb="1" eb="3">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モンスターをうろうろさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターが倒せなかったら</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村が壊滅する</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食料がなくて死ぬ</t>
+    <rPh sb="0" eb="2">
+      <t>ショクリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喜ぶ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨロコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見捨てられる</t>
+    <rPh sb="0" eb="2">
+      <t>ミス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モンスターを倒せたら</t>
+    <rPh sb="6" eb="7">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村が救われる</t>
+    <rPh sb="0" eb="1">
+      <t>ムラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食料が得られる</t>
+    <rPh sb="0" eb="2">
+      <t>ショクリョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悲しむ</t>
+    <rPh sb="0" eb="1">
+      <t>カナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受け入れられる</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>救われる</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>復讐が終わる</t>
+    <rPh sb="0" eb="2">
+      <t>フクシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +1395,14 @@
       <name val="游明朝"/>
       <family val="1"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -949,7 +1427,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -961,6 +1439,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,6 +1756,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5560B-2D4D-4AE7-929E-6813A64ECADA}">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.65">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEA8432-4269-4050-93E3-5D6813E489AA}">
   <dimension ref="A2:B9"/>
   <sheetViews>
@@ -1290,58 +1894,58 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
-      </c>
-      <c r="B2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="35.15" x14ac:dyDescent="0.65">
       <c r="A7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1350,15 +1954,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F063B0-0662-4977-9E07-F37BD8D46885}">
+  <dimension ref="B1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B7" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.65">
+      <c r="B8" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD18D3E-CC3F-4C9C-BAB3-B729B4A0EF05}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1382,7 +2066,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>7</v>
@@ -1400,147 +2084,193 @@
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="I1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B4" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>87</v>
+      </c>
+      <c r="C5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.65">
-      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="55.3" x14ac:dyDescent="0.65">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="B14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.65">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="92.15" x14ac:dyDescent="0.65">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="92.15" x14ac:dyDescent="0.65">
+      <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="129" x14ac:dyDescent="0.65">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="55.3" x14ac:dyDescent="0.65">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="55.3" x14ac:dyDescent="0.65">
+      <c r="B20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36.9" x14ac:dyDescent="0.65">
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.65">
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="92.15" x14ac:dyDescent="0.65">
-      <c r="B9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="92.15" x14ac:dyDescent="0.65">
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="129" x14ac:dyDescent="0.65">
-      <c r="B11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="55.3" x14ac:dyDescent="0.65">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="55.3" x14ac:dyDescent="0.65">
-      <c r="B13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="36.9" x14ac:dyDescent="0.65">
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
-      <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.65">
-      <c r="C17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1550,12 +2280,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A43901-17F4-4ECC-B7D4-344C5056D1AB}">
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1566,10 +2296,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.65">
@@ -1577,7 +2307,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="35.6" customHeight="1" x14ac:dyDescent="0.65">
@@ -1585,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">
@@ -1609,7 +2339,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.65">
@@ -1617,7 +2347,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.65">
@@ -1625,7 +2355,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.65">
@@ -1633,21 +2363,22 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3374A6-4D5D-4769-85AF-1E7B8A35F55B}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1665,10 +2396,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.65">
@@ -1688,7 +2419,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.65">
@@ -1718,7 +2449,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/卒展企画書.xlsx
+++ b/卒展企画書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugen\Desktop\卒展企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1A05585D-9EC0-4FAA-BF5A-032ADC9F83BC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4167465A-8AC9-480D-81F0-A0912AFA6227}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" activeTab="2" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
   </bookViews>
   <sheets>
     <sheet name="重要ワード" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
   <si>
     <t>絵コンテ</t>
     <rPh sb="0" eb="1">
@@ -872,26 +872,6 @@
     </rPh>
     <rPh sb="197" eb="198">
       <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日笠陽子</t>
-    <rPh sb="0" eb="2">
-      <t>ヒカサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>佐藤聡美</t>
-    <rPh sb="0" eb="2">
-      <t>サトウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サトミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1365,6 +1345,44 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仲間がピンチに立った時
+のみ素早く移動して
+仲間をかばうことができる</t>
+    <rPh sb="0" eb="2">
+      <t>ナカマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ナカマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そこそこ町は活気がある</t>
+    <rPh sb="4" eb="5">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カッキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1759,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5560B-2D4D-4AE7-929E-6813A64ECADA}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1771,105 +1789,111 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
         <v>115</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.65">
       <c r="C17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1958,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F063B0-0662-4977-9E07-F37BD8D46885}">
   <dimension ref="B1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1972,60 +1996,60 @@
   <sheetData>
     <row r="1" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B1" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B3" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.65">
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2039,10 +2063,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -2095,7 +2119,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -2107,18 +2131,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.65">
@@ -2146,27 +2170,30 @@
         <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.65">
       <c r="B13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="36.9" x14ac:dyDescent="0.65">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="73.75" x14ac:dyDescent="0.65">
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.65">
@@ -2266,12 +2293,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.65">
-      <c r="C24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2315,7 +2338,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">

--- a/卒展企画書.xlsx
+++ b/卒展企画書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mugen\Desktop\卒展企画書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4167465A-8AC9-480D-81F0-A0912AFA6227}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC87FEF-844F-4ED0-B5A2-CCFC6CF66F7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12326" windowHeight="2589" activeTab="2" xr2:uid="{65C17091-232A-4A08-8097-ACAA886B052B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="143">
   <si>
     <t>絵コンテ</t>
     <rPh sb="0" eb="1">
@@ -974,67 +974,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キャラAが飛んで叩きつける</t>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃をくらいながらもにらみつける</t>
     <rPh sb="0" eb="2">
       <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岩に向かって吹っ飛ばされる</t>
-    <rPh sb="0" eb="1">
-      <t>イワ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>二刀流で空中縦回転斬り</t>
-    <rPh sb="0" eb="3">
-      <t>ニトウリュウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>クウチュウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タテ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カイテン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃を受け押さえる</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1064,49 +1006,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャンプ叩き打ち</t>
-    <rPh sb="4" eb="5">
-      <t>タタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相方を投げる</t>
-    <rPh sb="0" eb="2">
-      <t>アイカタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>相方を受け止める</t>
-    <rPh sb="0" eb="2">
-      <t>アイカタ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャラAを崖につかまりながら助ける</t>
-    <rPh sb="5" eb="6">
-      <t>ガケ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>タス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1383,6 +1282,219 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>カッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作品内に
+用意する
+予定のもの</t>
+    <rPh sb="0" eb="2">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬型モンスター</t>
+    <rPh sb="0" eb="2">
+      <t>イヌガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双剣人</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大剣人</t>
+    <rPh sb="0" eb="2">
+      <t>ダイケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩に向かって吹っ飛ばされてぶつかる</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相方を大剣で受け止めて反動で飛ばす</t>
+    <rPh sb="0" eb="2">
+      <t>アイカタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ダイケン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハンドウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃を受け、押さえ続ける</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大剣人</t>
+    <rPh sb="0" eb="2">
+      <t>ダイケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双剣人</t>
+    <rPh sb="0" eb="2">
+      <t>ソウケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人共通</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>犬型モンスター</t>
+    <rPh sb="0" eb="2">
+      <t>イヌガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛んで叩きつける</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空中縦回転斬り</t>
+    <rPh sb="0" eb="2">
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の顔面に向かて横振り</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガンメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前の手爪攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バク宙蹴り攻撃</t>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1777,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5560B-2D4D-4AE7-929E-6813A64ECADA}">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -1789,111 +1901,111 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.65">
       <c r="C8" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.65">
       <c r="C9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.65">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.65">
       <c r="C17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1980,81 +2092,105 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F063B0-0662-4977-9E07-F37BD8D46885}">
-  <dimension ref="B1:D8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.640625" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="29.0703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.0703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:6" ht="54.45" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B2" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:6" ht="54.45" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C3" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B4" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.65">
-      <c r="B8" s="4" t="s">
-        <v>102</v>
+      <c r="E4" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="F6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2193,7 +2329,7 @@
         <v>89</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.65">
@@ -2338,7 +2474,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.65">
